--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/AVGScripts/短信内容/闲聊短信/土山奥.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/AVGScripts/短信内容/闲聊短信/土山奥.xlsx
@@ -1,47 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MOBI\01_source\mobi_client\mobi_client\mobi_config\excel\AVGScripts\短信内容\闲聊短信\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34182E05-44A6-4F01-B1DD-E44AF76BBBA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12090" tabRatio="786" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="chat_tushanao_1|恐惧" sheetId="1" r:id="rId1"/>
-    <sheet name="辅助表" sheetId="2" r:id="rId2"/>
+    <sheet name="chat_tushanao_1|关于STS的生活" sheetId="1" r:id="rId1"/>
+    <sheet name="chat_tushanao_2|冰酒的下落" sheetId="3" r:id="rId2"/>
+    <sheet name="chat_tushanao_3|关于新能力" sheetId="4" r:id="rId3"/>
+    <sheet name="辅助表" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'chat_tushanao_1|恐惧'!$A$1:$H$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'chat_tushanao_1|关于STS的生活'!$A$1:$H$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'chat_tushanao_2|冰酒的下落'!$A$1:$H$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'chat_tushanao_3|关于新能力'!$A$1:$H$65</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -50,7 +47,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,14 +54,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>liuweiguang:</t>
@@ -74,7 +69,120 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+空项和0,都视为0
+组号，写G或者g，都算一组的开始
+G:aaa 带有名字的组号
+例如填了个1.5，指的是从本组组号开始，到1.5秒后执行动作</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+潜规则，组必须等到文本结束才算开始</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liuweiguang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+空项和0,都视为0
+组号，写G或者g，都算一组的开始
+G:aaa 带有名字的组号
+例如填了个1.5，指的是从本组组号开始，到1.5秒后执行动作</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+潜规则，组必须等到文本结束才算开始</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>liuweiguang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -90,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="145">
   <si>
     <t>说明</t>
   </si>
@@ -152,19 +260,367 @@
     <t>string</t>
   </si>
   <si>
+    <t>关于STS的生活</t>
+  </si>
+  <si>
+    <t>1.5&gt;&gt;</t>
+  </si>
+  <si>
     <t>角色台词</t>
+  </si>
+  <si>
+    <t>tushanao</t>
+  </si>
+  <si>
+    <t>换了通讯器，跟你打个招呼。</t>
+  </si>
+  <si>
+    <t>可选对话框</t>
+  </si>
+  <si>
+    <t>$$工作生活还适应吗？==&gt;还适应吗</t>
+  </si>
+  <si>
+    <t>还适应吗</t>
   </si>
   <si>
     <t>wo</t>
   </si>
   <si>
-    <t>可选对话框</t>
+    <t>工作生活还适应吗？</t>
+  </si>
+  <si>
+    <t>感觉良好。</t>
+  </si>
+  <si>
+    <t>你们很闲。</t>
+  </si>
+  <si>
+    <t>$$一旦来紧急任务我们也会很忙的！==&gt;忙</t>
+  </si>
+  <si>
+    <t>忙</t>
+  </si>
+  <si>
+    <t>一旦来紧急任务我们也会很忙的！</t>
+  </si>
+  <si>
+    <t>$$联合议会的工作怎么样？==&gt;工作
+$$有什么需要就告诉我。==&gt;需要</t>
+  </si>
+  <si>
+    <t>联合议会的工作怎么样？</t>
+  </si>
+  <si>
+    <t>24小时待命。</t>
+  </si>
+  <si>
+    <t>追查走私者，保护政要，执行暗杀名单……</t>
+  </si>
+  <si>
+    <t>$$等下！探员要做这么多工作吗？==&gt;多</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>等下！探员要做这么多工作吗？</t>
+  </si>
+  <si>
+    <t>1&gt;&gt;</t>
+  </si>
+  <si>
+    <t>为什么还有暗杀这种任务！</t>
+  </si>
+  <si>
+    <t>政治博弈本身就是肮脏的。</t>
+  </si>
+  <si>
+    <t>$$唔。==&gt;唔</t>
+  </si>
+  <si>
+    <t>唔</t>
+  </si>
+  <si>
+    <t>唔。</t>
   </si>
   <si>
     <t>跳转-标签</t>
   </si>
   <si>
+    <t>分支结束</t>
+  </si>
+  <si>
+    <t>需要</t>
+  </si>
+  <si>
+    <t>有什么需要就告诉我。</t>
+  </si>
+  <si>
+    <t>我想要STS所有分站点的收容室资料。</t>
+  </si>
+  <si>
+    <t>$$这种我肯定没有，你应该找杜衡！==&gt;找杜衡</t>
+  </si>
+  <si>
+    <t>找杜衡</t>
+  </si>
+  <si>
+    <t>这种我肯定没有，你应该找杜衡！</t>
+  </si>
+  <si>
+    <t>她暂时拒绝了我。</t>
+  </si>
+  <si>
+    <t>条件是我协助你们接下来的每次行动。</t>
+  </si>
+  <si>
+    <t>晋升到一定等级她会给我开放。</t>
+  </si>
+  <si>
+    <t>$$所以...==&gt;所以</t>
+  </si>
+  <si>
+    <t>所以</t>
+  </si>
+  <si>
+    <t>所以...</t>
+  </si>
+  <si>
+    <t>请多指教。队长。</t>
+  </si>
+  <si>
+    <t>$$太客气了！==&gt;客气</t>
+  </si>
+  <si>
+    <t>客气</t>
+  </si>
+  <si>
+    <t>太客气了，应该的！</t>
+  </si>
+  <si>
+    <t>总之，不要老是一个人闷在屋子或者实验室里。</t>
+  </si>
+  <si>
+    <t>多来作战室找我们玩啊。</t>
+  </si>
+  <si>
+    <t>嗯。</t>
+  </si>
+  <si>
     <t>结束</t>
+  </si>
+  <si>
+    <t>冰酒的下落</t>
+  </si>
+  <si>
+    <t>关于冰酒的下落……你有什么头绪吗？</t>
+  </si>
+  <si>
+    <t>我跟杜衡查过她所有的住址。</t>
+  </si>
+  <si>
+    <t>包括每次执行任务的秘密联络点。</t>
+  </si>
+  <si>
+    <t>她都没有去过。</t>
+  </si>
+  <si>
+    <t>$$直接消失了啊。==&gt;消失</t>
+  </si>
+  <si>
+    <t>消失</t>
+  </si>
+  <si>
+    <t>直接消失了啊。</t>
+  </si>
+  <si>
+    <t>我们猜她现在已经不在国内，甚至不在联合议会能触及的国家里。</t>
+  </si>
+  <si>
+    <t>$$她这么厉害吗？==&gt;厉害
+$$她为什么要陷害你？==&gt;陷害</t>
+  </si>
+  <si>
+    <t>厉害</t>
+  </si>
+  <si>
+    <t>她这么厉害吗？</t>
+  </si>
+  <si>
+    <t>你知道里科赛罗战役最后的反水事件吗？</t>
+  </si>
+  <si>
+    <t>$$看过报道……是结束异质物战争的关键一战。==&gt;看过</t>
+  </si>
+  <si>
+    <t>看过</t>
+  </si>
+  <si>
+    <t>看过报道……是结束异质物战争的关键一战。</t>
+  </si>
+  <si>
+    <t>策反的统筹者就是冰酒。</t>
+  </si>
+  <si>
+    <t>一战成名，联邦军埋藏最深的卧底之一。</t>
+  </si>
+  <si>
+    <t>$$真的很厉害啊！==&gt;好家伙</t>
+  </si>
+  <si>
+    <t>好家伙</t>
+  </si>
+  <si>
+    <t>真的很厉害啊！</t>
+  </si>
+  <si>
+    <t>陷害</t>
+  </si>
+  <si>
+    <t>她为什么要陷害你？</t>
+  </si>
+  <si>
+    <t>没有别的棋子可以用了。</t>
+  </si>
+  <si>
+    <t>大概。</t>
+  </si>
+  <si>
+    <t>$$你恨她吗？==&gt;恨</t>
+  </si>
+  <si>
+    <t>恨</t>
+  </si>
+  <si>
+    <t>你恨她吗？</t>
+  </si>
+  <si>
+    <t>2&gt;&gt;</t>
+  </si>
+  <si>
+    <t>我只是需要时间接受我从来没有了解过她这个事实。</t>
+  </si>
+  <si>
+    <t>$$这么看来冰酒是一个谍中谍啊！==&gt;碟中谍</t>
+  </si>
+  <si>
+    <t>碟中谍</t>
+  </si>
+  <si>
+    <t>这么看来冰酒是一个谍中谍啊！</t>
+  </si>
+  <si>
+    <t>背后那个组织太神秘了，有什么可查的资料吗？</t>
+  </si>
+  <si>
+    <t>暂时没有。</t>
+  </si>
+  <si>
+    <t>$$好吧==&gt;好吧</t>
+  </si>
+  <si>
+    <t>好吧！</t>
+  </si>
+  <si>
+    <t>关于新能力</t>
+  </si>
+  <si>
+    <t>杜博士说，你的身体被异质物改造了，有了新的能力？</t>
+  </si>
+  <si>
+    <t>将心灵立场实体化作为防御墙。</t>
+  </si>
+  <si>
+    <t>$$很适合你！==&gt;适合
+$$听起来很厉害。==&gt;厉害</t>
+  </si>
+  <si>
+    <t>适合</t>
+  </si>
+  <si>
+    <t>很适合你！</t>
+  </si>
+  <si>
+    <t>我之前观察大家的能力，似乎跟本人的特性有关。</t>
+  </si>
+  <si>
+    <t>土山的特性居然是“保护”，果然是个温柔的人。</t>
+  </si>
+  <si>
+    <t>哦？</t>
+  </si>
+  <si>
+    <t>大家应该都是这么想的！</t>
+  </si>
+  <si>
+    <t>听起来很厉害！</t>
+  </si>
+  <si>
+    <t>$$土山平常喜欢做什么？==&gt;喜欢</t>
+  </si>
+  <si>
+    <t>喜欢</t>
+  </si>
+  <si>
+    <t>啊哈哈哈，算了我们聊点别的。</t>
+  </si>
+  <si>
+    <t>土山平常喜欢做什么？</t>
+  </si>
+  <si>
+    <t>阅读。</t>
+  </si>
+  <si>
+    <t>$$之前就看出来了！！==&gt;之前</t>
+  </si>
+  <si>
+    <t>之前</t>
+  </si>
+  <si>
+    <t>之前就看出来了！！</t>
+  </si>
+  <si>
+    <t>文学、生物化学、机械工程、军事战略。</t>
+  </si>
+  <si>
+    <t>$$感觉你读过很多文学著作！==&gt;很多</t>
+  </si>
+  <si>
+    <t>很多</t>
+  </si>
+  <si>
+    <t>感觉你读过很多文学著作！</t>
+  </si>
+  <si>
+    <t>故事是生活的比喻。</t>
+  </si>
+  <si>
+    <t>诗人和小说家为我们提供深度和宽度。</t>
+  </si>
+  <si>
+    <t>$$你跟杜博士应该很聊得来……==&gt;聊得来</t>
+  </si>
+  <si>
+    <t>聊得来</t>
+  </si>
+  <si>
+    <t>你跟杜博士应该很聊得来……</t>
+  </si>
+  <si>
+    <t>都是很深奥很哲学的人……</t>
+  </si>
+  <si>
+    <t>还有什么事吗？</t>
+  </si>
+  <si>
+    <t>$$啊，没有了！你忙吧！==&gt;忙吧</t>
+  </si>
+  <si>
+    <t>忙吧</t>
+  </si>
+  <si>
+    <t>啊，没有了！你忙吧！</t>
   </si>
   <si>
     <t>说明文档位置</t>
@@ -181,234 +637,18 @@
   <si>
     <t>说明文档起始行</t>
   </si>
-  <si>
-    <t>原来这些灵异事件都是人为的呀</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>想想还是挺可怕的</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>是吗？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>你真的这么觉得吗？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>tushanao</t>
-  </si>
-  <si>
-    <t>tushanao</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐惧</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>不恐惧</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>一开始真的是吓一跳</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>以为是有什么鬼魂呢</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>这些鬼神之说，都会让你感到害怕</t>
-  </si>
-  <si>
-    <t>真正的怪物相处</t>
-  </si>
-  <si>
-    <t>难道不会更加恐惧吗？</t>
-  </si>
-  <si>
-    <t>那么跟我们这些- -</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>$$不回复==&gt;结束
-$$是的==&gt;是的
-$$不是==&gt;不是</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>仔细想想的话，其实也还好</t>
-  </si>
-  <si>
-    <t>一切灵异事件都是利用人们对未知的恐惧</t>
-  </si>
-  <si>
-    <t>仅仅是未知吗？</t>
-  </si>
-  <si>
-    <t>这群拥有特殊能力的怪物？</t>
-  </si>
-  <si>
-    <t>什么牛鬼蛇神，都是封建迷信</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦率的说，我每天都会感到恐惧</t>
-  </si>
-  <si>
-    <t>不知道明天等待我们的是什么样的危险</t>
-  </si>
-  <si>
-    <t>我真的做出了正确的选择吗？</t>
-  </si>
-  <si>
-    <t>这件事本身的意义，又在何处呢？</t>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么呢</t>
-  </si>
-  <si>
-    <t>我跟你们都是同类</t>
-  </si>
-  <si>
-    <t>。。。</t>
-  </si>
-  <si>
-    <t>。。。不恐惧</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为，本质上。。。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>很矛盾</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>wo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>。。。怎么说呢</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>待久了，反而有种从未有过的感觉</t>
-  </si>
-  <si>
-    <t>从未有过的感觉？</t>
-  </si>
-  <si>
-    <t>不如说是有点恐惧，离开这里了。。。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚来的时候，看到你们以为进入了魔女的老巢</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>。。。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵异事件的看法</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>矛盾？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>$$不回复==&gt;结束
-$$恐惧==&gt;恐惧
-$$不恐惧==&gt;不恐惧
-$$很矛盾==&gt;很矛盾</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>是吗，恐惧鬼神吗？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界的异端吗？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>一群不容于世界的异端</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果说，存在恐惧</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>处于难以预兆的危险环境中，也能安之若素吗？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如说，跟我们。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6&gt;&gt;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>家？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种熟悉又陌生的感觉，可以称之为- -</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒是有些矛盾</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5&gt;&gt;</t>
-  </si>
-  <si>
-    <t>1.5&gt;&gt;</t>
-  </si>
-  <si>
-    <t>跟你们一起相处</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知道我们这群人的存在有何意义</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的选择。。。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,7 +661,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -429,7 +668,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -437,14 +675,12 @@
       <sz val="9"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -452,53 +688,188 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,18 +896,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39963988158818325"/>
+        <fgColor theme="3" tint="0.399639881588183"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -559,149 +1116,465 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="51" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="51" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="辅助表"/>
@@ -714,12 +1587,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="chat_kaiselin_1|聂飞关系"/>
-      <sheetName val="chat_kaiselin_2|手环原理"/>
-      <sheetName val="chat_kaiselin_3|昭离公馆"/>
+      <sheetName val="chat_kaiselin_0|询问增强剂"/>
+      <sheetName val="chat_kaiselin_1|加入STS"/>
+      <sheetName val="chat_kaiselin_2|关心自己身体"/>
+      <sheetName val="chat_kaiselin_3|漆异之的死亡"/>
       <sheetName val="辅助表"/>
     </sheetNames>
     <sheetDataSet>
@@ -727,13 +1601,14 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AVG指令文档"/>
@@ -827,6 +1702,8 @@
             <v>pos=0
 【每一个增加一个位置都具有编号，位置提前在编辑器中配置好，此处只是调用】</v>
           </cell>
+        </row>
+        <row r="9">
           <cell r="H9" t="str">
             <v>TRUE;TRUE;TRUE
 【是否根据站位自动移动相机（默认TRUE）|是否自动转1，2位置的角度（默认TRUE）|是否半透明渐变出现（默认TRUE）】</v>
@@ -844,6 +1721,8 @@
             <v>mj_001;duijiangji02
 【用分号隔开每个挂件的名字】</v>
           </cell>
+        </row>
+        <row r="10">
           <cell r="H10" t="str">
             <v>FALSE;FALSE
 【FALSE为不显示对应param填写的对应位置
@@ -857,6 +1736,8 @@
           <cell r="E11" t="str">
             <v>npc_aimeng</v>
           </cell>
+        </row>
+        <row r="11">
           <cell r="H11" t="str">
             <v>TRUE;TRUE
 【是否根据站位自动移动相机，默认TRUE|是否自动转1，2位置的角度（默认TRUE）|是否半透明渐变消失（默认TRUE）】</v>
@@ -1136,6 +2017,8 @@
 方向填写“无”为恢复转头。{角色转头,,无}
 】</v>
           </cell>
+        </row>
+        <row r="28">
           <cell r="H28" t="str">
             <v>0.5（耗费时间）</v>
           </cell>
@@ -1300,6 +2183,8 @@
             <v>TRUE
 【是否使用全屏，默认TRUE】</v>
           </cell>
+        </row>
+        <row r="42">
           <cell r="H42" t="str">
             <v>offx=0.5;offy=0.2
 【offx,offy坐标偏移比例】</v>
@@ -1314,6 +2199,8 @@
           <cell r="D44" t="str">
             <v>打开特效板</v>
           </cell>
+        </row>
+        <row r="44">
           <cell r="F44" t="str">
             <v>boardBgName
 【特效背景板图片名称，可不填】
@@ -1329,6 +2216,8 @@
           <cell r="D45" t="str">
             <v>特效板动作</v>
           </cell>
+        </row>
+        <row r="45">
           <cell r="G45" t="str">
             <v>effectName
 Assets\Resources\avg\effectboard\prefabs\</v>
@@ -1342,6 +2231,8 @@
           <cell r="D46" t="str">
             <v>关闭特效板</v>
           </cell>
+        </row>
+        <row r="46">
           <cell r="G46" t="str">
             <v>effectName
 【挂在特效板上的粒子特效名，可不填，若不填就关闭整个板子】</v>
@@ -1351,6 +2242,8 @@
           <cell r="D47" t="str">
             <v>可选对话框</v>
           </cell>
+        </row>
+        <row r="47">
           <cell r="F47" t="str">
             <v>(ri_goldenKey&gt;0)$$条件触发项 ==&gt;后续一
 ()$$某某某==&gt;无条件触发项
@@ -1497,6 +2390,8 @@
             <v>talkTarget
 【交谈对象名】</v>
           </cell>
+        </row>
+        <row r="56">
           <cell r="H56" t="str">
             <v>offx=0.5
 【offx坐标偏移比例】</v>
@@ -1857,20 +2752,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.875" style="9" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="10" customWidth="1"/>
@@ -1885,7 +2781,7 @@
     <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:10">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1906,46 +2802,45 @@
       <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="37"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="66.75" customHeight="1" spans="1:10">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="20" t="str">
-        <f ca="1">INDEX($D$5:$D$865,CELL("row")-4)</f>
-        <v>跳转-标签</v>
+        <f ca="1">INDEX($D$5:$D$861,CELL("row")-4)</f>
+        <v>可选对话框</v>
       </c>
       <c r="E2" s="21" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>ri_线索名==1     ri_线索名&gt;1
-逻辑组合写法：
-【或】：【||】
-【且】：【&amp;&amp;】
-例如a&gt;b&amp;&amp;b==2||c&gt;0</v>
+        <v/>
       </c>
       <c r="F2" s="21" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>LabelName
-S3_C2.LabelName
-【跳转命令不仅可以跳转当前标签，还可以跳转到Excel中的任意一个页签的某标签】
-注：页签必须是英文，中文命名的页签在工具中不导出数据，可以用作备份</v>
+        <v>(ri_goldenKey&gt;0)$$条件触发项 ==&gt;后续一
+()$$某某某==&gt;无条件触发项
+ri_:调查模块item。rqs_:任务状态 0未接 1已接 2 已完成。
+rqp_:任务进度 。无前缀: 自定义值。
+如果param2不填且param3不填，()※※某某某==&gt;xxx的意思为"读两次某某某则某某某选项消失"</v>
       </c>
       <c r="G2" s="22" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v/>
+        <v>如果不填且param3不填，则已读选项有已读标识
+如果填1，则已读选项和※的规则无效</v>
       </c>
       <c r="H2" s="22" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v/>
-      </c>
-      <c r="J2" s="37" t="s">
+        <v>type=0
+【type表示类型，默认0是普通选择框，1是推理选择框，2是手机下的可选对话框】</v>
+      </c>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +2866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
@@ -1998,7 +2893,7 @@
       </c>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
@@ -2025,1054 +2920,2814 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="33">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
         <v>0</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="33">
-        <f t="shared" ref="A7:A69" si="0">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="41.25" customHeight="1" spans="1:6">
       <c r="A8" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>20</v>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F12" s="35"/>
-    </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="21.75" customHeight="1" spans="1:6">
       <c r="A13" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A13:A65" si="1">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="33">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="33">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="71" customHeight="1" spans="1:7">
+      <c r="A16" s="33">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="33">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" ht="51" customHeight="1" spans="1:7">
+      <c r="A18" s="33">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="33">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="33">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" ht="13.5" spans="1:7">
+      <c r="A21" s="33">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="33">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="33">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="33">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" ht="17.1" customHeight="1" spans="1:7">
+      <c r="A25" s="33">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="33">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="33">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="B27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" ht="53.25" customHeight="1" spans="1:7">
+      <c r="A28" s="33">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="33">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:1">
+      <c r="A30" s="33">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="33">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="33">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33" s="33">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
+      <c r="A34" s="33">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" s="33">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="33">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
+      <c r="A37" s="33">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="33">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="33">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="33">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="33">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="33">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:6">
+      <c r="A43" s="33">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:6">
+      <c r="A44" s="33">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="33">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:6">
+      <c r="A45" s="33">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
+      <c r="A46" s="33">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
+      <c r="A47" s="33">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48" s="33">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:6">
+      <c r="A49" s="33">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" s="33">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="33">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="33">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="33">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="33">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="33">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="33">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D22" s="33" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="33">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="36"/>
-    </row>
-    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="33">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="E51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:5">
+      <c r="A52" s="33">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="D52" s="33"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:5">
+      <c r="A53" s="33">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="33">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="33">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="33">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="33">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="33">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="33">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="33">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="33">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="33">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="33">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="D35" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="33">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="33">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="33">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="33">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="33">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="33">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="33">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="33">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="33">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="33">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="33">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="33">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="33">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="33">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="33">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="33">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="33">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="33">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+      <c r="B53" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:6">
+      <c r="A54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="15"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="33">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:6">
+      <c r="A55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="15"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="33">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="33">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="33">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="33">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="33">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="33">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="33">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="33">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="33">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="33">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="33">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="33">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="33">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="D68" s="33"/>
-      <c r="E68" s="15"/>
-    </row>
-    <row r="69" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="33">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:6">
+      <c r="A56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
+      <c r="A57" s="33"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
+      <c r="A58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
+      <c r="A59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:6">
+      <c r="A60" s="33"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:6">
+      <c r="A61" s="33"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:6">
+      <c r="A62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:5">
+      <c r="A63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:5">
+      <c r="A64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:1">
+      <c r="A65" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:H65">
+    <extLst/>
+  </autoFilter>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D11 D12 D19 D20 D24 D25 D33 D37 D38 D39 D43 D51">
+      <formula1>[1]辅助表!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D15 D18 D23 D28 D32 D36 D42 D46 D49 D50 D8:D9 D13:D14 D16:D17 D21:D22 D26:D27 D34:D35 D40:D41 D44:D45">
+      <formula1>[2]辅助表!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47 D48 D29:D31 D52:D65">
+      <formula1>辅助表!$D$6:$D$77</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>'C:\Users\DELL\Documents\MOBI\01_source\mobi_client\mobi_client\mobi_config\excel\AVGScripts\短信内容\闲聊短信\[04_hall.xlsx]辅助表'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D7:D11 D19 D13:D17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>'E:\MOBI\01_source\mobi_client\mobi_client\mobi_config\excel\AVGScripts\短信内容\闲聊短信\[凯瑟琳闲聊.xlsx]辅助表'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>辅助表!$D$6:$D$77</xm:f>
-          </x14:formula1>
-          <xm:sqref>D18 D20:D41 D44:D53 D56:D69</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="81.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="66.75" customHeight="1" spans="1:10">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="20" t="str">
+        <f ca="1">INDEX($D$5:$D$863,CELL("row")-4)</f>
+        <v>可选对话框</v>
+      </c>
+      <c r="E2" s="21" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v/>
+      </c>
+      <c r="F2" s="21" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>(ri_goldenKey&gt;0)$$条件触发项 ==&gt;后续一
+()$$某某某==&gt;无条件触发项
+ri_:调查模块item。rqs_:任务状态 0未接 1已接 2 已完成。
+rqp_:任务进度 。无前缀: 自定义值。
+如果param2不填且param3不填，()※※某某某==&gt;xxx的意思为"读两次某某某则某某某选项消失"</v>
+      </c>
+      <c r="G2" s="22" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>如果不填且param3不填，则已读选项有已读标识
+如果填1，则已读选项和※的规则无效</v>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>type=0
+【type表示类型，默认0是普通选择框，1是推理选择框，2是手机下的可选对话框】</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="33">
+        <f t="shared" ref="A6:A48" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" ht="71" customHeight="1" spans="1:7">
+      <c r="A15" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" ht="51" customHeight="1" spans="1:7">
+      <c r="A17" s="33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="33">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="33">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="33">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" ht="53.25" customHeight="1" spans="1:7">
+      <c r="A28" s="33">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="33">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
+      <c r="A30" s="33">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" s="33">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" s="33">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
+      <c r="A33" s="33">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="33">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" s="33">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
+      <c r="A37" s="33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="33">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="33">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="33">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="33">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:7">
+      <c r="A43" s="33">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
+      <c r="A44" s="33">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="33">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="33">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
+      <c r="A47" s="33">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:6">
+      <c r="A48" s="33">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:1">
+      <c r="A49" s="33"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:1">
+      <c r="A50" s="33"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:6">
+      <c r="A51" s="33"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="33"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="33"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
+      <c r="A54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
+      <c r="A55" s="33">
+        <f>ROW()-6</f>
+        <v>49</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:6">
+      <c r="A56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
+      <c r="A57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
+      <c r="A58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
+      <c r="A59" s="33"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:6">
+      <c r="A60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:6">
+      <c r="A61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:6">
+      <c r="A62" s="33"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:6">
+      <c r="A63" s="33"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:6">
+      <c r="A64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:5">
+      <c r="A65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:5">
+      <c r="A66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:1">
+      <c r="A67" s="33"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H67">
+    <extLst/>
+  </autoFilter>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D13 D17 D21 D26 D27 D28 D29 D34 D36 D41 D46 D47 D48 D51 D52 D11:D12 D15:D16 D19:D20 D24:D25 D32:D33 D37:D38 D39:D40 D44:D45">
+      <formula1>[2]辅助表!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D9 D10 D14 D18 D22 D23 D30 D31 D35 D42 D43 D53">
+      <formula1>[1]辅助表!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49 D50 D54:D67">
+      <formula1>辅助表!$D$6:$D$77</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="81.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="66.75" customHeight="1" spans="1:10">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="20" t="str">
+        <f ca="1">INDEX($D$5:$D$861,CELL("row")-4)</f>
+        <v>可选对话框</v>
+      </c>
+      <c r="E2" s="21" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
+        <v/>
+      </c>
+      <c r="F2" s="21" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
+        <v>(ri_goldenKey&gt;0)$$条件触发项 ==&gt;后续一
+()$$某某某==&gt;无条件触发项
+ri_:调查模块item。rqs_:任务状态 0未接 1已接 2 已完成。
+rqp_:任务进度 。无前缀: 自定义值。
+如果param2不填且param3不填，()※※某某某==&gt;xxx的意思为"读两次某某某则某某某选项消失"</v>
+      </c>
+      <c r="G2" s="22" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
+        <v>如果不填且param3不填，则已读选项有已读标识
+如果填1，则已读选项和※的规则无效</v>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
+        <v>type=0
+【type表示类型，默认0是普通选择框，1是推理选择框，2是手机下的可选对话框】</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="33">
+        <f t="shared" ref="A6:A19" si="0">ROW()-6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" ht="71" customHeight="1" spans="1:7">
+      <c r="A10" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" ht="51" customHeight="1" spans="1:7">
+      <c r="A12" s="33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" ht="23" customHeight="1" spans="1:7">
+      <c r="A15" s="33">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="33">
+        <f t="shared" ref="A20:A27" si="1">ROW()-6</f>
+        <v>14</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:7">
+      <c r="A21" s="33">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="33">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" ht="53.25" customHeight="1" spans="1:7">
+      <c r="A23" s="33">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="33">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="33">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="33">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="33">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="33">
+        <f t="shared" ref="A27:A51" si="2">ROW()-6</f>
+        <v>22</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="1:7">
+      <c r="A29" s="33">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="33">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" s="33">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" s="33">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" ht="23" customHeight="1" spans="1:7">
+      <c r="A33" s="33">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
+      <c r="A34" s="33">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" s="33">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="33">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" ht="23" customHeight="1" spans="1:7">
+      <c r="A37" s="33">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" ht="23" customHeight="1" spans="1:7">
+      <c r="A38" s="33">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="33">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="33">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="33">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="33">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" ht="23" customHeight="1" spans="1:7">
+      <c r="A43" s="33">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
+      <c r="A44" s="33">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="33">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="33">
+        <f>ROW()-6</f>
+        <v>40</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:2">
+      <c r="A47" s="33">
+        <f>ROW()-6</f>
+        <v>41</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:1">
+      <c r="A48" s="33"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:6">
+      <c r="A49" s="33"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" s="33"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="33"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:5">
+      <c r="A52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:5">
+      <c r="A53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:6">
+      <c r="A54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:6">
+      <c r="A55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:6">
+      <c r="A56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
+      <c r="A57" s="33"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
+      <c r="A58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
+      <c r="A59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:6">
+      <c r="A60" s="33"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:6">
+      <c r="A61" s="33"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:6">
+      <c r="A62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:5">
+      <c r="A63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:5">
+      <c r="A64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:1">
+      <c r="A65" s="33"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H65">
+    <extLst/>
+  </autoFilter>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D45">
+      <formula1>[2]辅助表!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D12 D14 D19 D20 D23 D24 D27 D28 D32 D36 D41 D42 D46 D49 D50 D10:D11 D25:D26 D30:D31 D34:D35 D39:D40">
+      <formula1>[2]辅助表!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D9 D13 D15 D16 D17 D18 D21 D22 D29 D33 D37 D38 D43 D51">
+      <formula1>[1]辅助表!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47 D48 D52:D65">
+      <formula1>辅助表!$D$6:$D$77</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AM202"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
@@ -3091,12 +5746,12 @@
     <col min="40" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -3162,12 +5817,12 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="AA2" s="2" t="str">
         <f>IF([3]AVG指令文档!D5&lt;&gt;0,[3]AVG指令文档!D5,"")</f>
@@ -3224,9 +5879,9 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -3286,7 +5941,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39">
       <c r="A4" s="6"/>
       <c r="AA4" s="2" t="str">
         <f>IF([3]AVG指令文档!D7&lt;&gt;0,[3]AVG指令文档!D7,"")</f>
@@ -3342,7 +5997,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3404,7 +6059,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3469,7 +6124,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -3538,7 +6193,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -3604,7 +6259,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -3673,7 +6328,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -3738,7 +6393,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -3811,7 +6466,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -3880,7 +6535,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -3947,7 +6602,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -4034,7 +6689,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -4099,7 +6754,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -4167,7 +6822,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -4236,7 +6891,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:39">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -4302,7 +6957,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:39">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -4373,7 +7028,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -4442,7 +7097,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:39">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -4508,7 +7163,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:39">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -4576,7 +7231,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -4643,7 +7298,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:39">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -4713,7 +7368,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:39">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -4783,7 +7438,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:39">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -4850,7 +7505,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:39">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -4915,7 +7570,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:39">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -4984,7 +7639,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:39">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -5052,7 +7707,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:39">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -5117,7 +7772,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:39">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -5185,7 +7840,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:39">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -5250,7 +7905,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:39">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -5316,7 +7971,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:39">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -5382,7 +8037,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:39">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -5450,7 +8105,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:39">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -5518,7 +8173,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:39">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -5583,7 +8238,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:39">
       <c r="A38" s="1">
         <v>33</v>
       </c>
@@ -5653,7 +8308,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:39">
       <c r="A39" s="1">
         <v>34</v>
       </c>
@@ -5722,7 +8377,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:39">
       <c r="A40" s="1">
         <v>35</v>
       </c>
@@ -5787,7 +8442,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:39">
       <c r="A41" s="1">
         <v>36</v>
       </c>
@@ -5856,7 +8511,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:39">
       <c r="A42" s="1">
         <v>37</v>
       </c>
@@ -5923,7 +8578,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:39">
       <c r="A43" s="1">
         <v>38</v>
       </c>
@@ -5989,7 +8644,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:39">
       <c r="A44" s="1">
         <v>39</v>
       </c>
@@ -6060,7 +8715,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:39">
       <c r="A45" s="1">
         <v>40</v>
       </c>
@@ -6132,7 +8787,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:39">
       <c r="A46" s="1">
         <v>41</v>
       </c>
@@ -6202,7 +8857,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:39">
       <c r="A47" s="1">
         <v>42</v>
       </c>
@@ -6274,7 +8929,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:39">
       <c r="A48" s="1">
         <v>43</v>
       </c>
@@ -6340,7 +8995,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:39">
       <c r="A49" s="1">
         <v>44</v>
       </c>
@@ -6406,7 +9061,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:39">
       <c r="A50" s="1">
         <v>45</v>
       </c>
@@ -6476,7 +9131,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:39">
       <c r="A51" s="1">
         <v>46</v>
       </c>
@@ -6542,7 +9197,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:39">
       <c r="A52" s="1">
         <v>47</v>
       </c>
@@ -6610,7 +9265,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:39">
       <c r="A53" s="1">
         <v>48</v>
       </c>
@@ -6678,7 +9333,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:39">
       <c r="A54" s="1">
         <v>49</v>
       </c>
@@ -6747,7 +9402,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:39">
       <c r="A55" s="1">
         <v>50</v>
       </c>
@@ -6814,7 +9469,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:39">
       <c r="A56" s="1">
         <v>51</v>
       </c>
@@ -6883,7 +9538,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:39">
       <c r="A57" s="1">
         <v>52</v>
       </c>
@@ -6949,7 +9604,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:39">
       <c r="A58" s="1">
         <v>53</v>
       </c>
@@ -7014,7 +9669,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:39">
       <c r="A59" s="1">
         <v>54</v>
       </c>
@@ -7079,7 +9734,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:39">
       <c r="A60" s="1">
         <v>55</v>
       </c>
@@ -7144,7 +9799,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:39">
       <c r="A61" s="1">
         <v>56</v>
       </c>
@@ -7212,7 +9867,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:39">
       <c r="A62" s="1">
         <v>57</v>
       </c>
@@ -7277,7 +9932,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:39">
       <c r="A63" s="1">
         <v>58</v>
       </c>
@@ -7342,7 +9997,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:39">
       <c r="A64" s="1">
         <v>59</v>
       </c>
@@ -7407,7 +10062,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:39">
       <c r="A65" s="1">
         <v>60</v>
       </c>
@@ -7472,7 +10127,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:39">
       <c r="A66" s="1">
         <v>61</v>
       </c>
@@ -7537,7 +10192,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:39">
       <c r="A67" s="1">
         <v>62</v>
       </c>
@@ -7602,7 +10257,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:39">
       <c r="A68" s="1">
         <v>63</v>
       </c>
@@ -7667,7 +10322,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:39">
       <c r="A69" s="1">
         <v>64</v>
       </c>
@@ -7732,7 +10387,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:39">
       <c r="A70" s="1">
         <v>65</v>
       </c>
@@ -7797,7 +10452,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:39">
       <c r="A71" s="1">
         <v>66</v>
       </c>
@@ -7862,7 +10517,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:39">
       <c r="A72" s="1">
         <v>67</v>
       </c>
@@ -7927,7 +10582,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:39">
       <c r="A73" s="1">
         <v>68</v>
       </c>
@@ -7992,7 +10647,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:39">
       <c r="A74" s="1">
         <v>69</v>
       </c>
@@ -8057,7 +10712,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:39">
       <c r="A75" s="1">
         <v>70</v>
       </c>
@@ -8122,7 +10777,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:39">
       <c r="A76" s="1">
         <v>71</v>
       </c>
@@ -8187,7 +10842,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:39">
       <c r="A77" s="1">
         <v>72</v>
       </c>
@@ -8252,7 +10907,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:39">
       <c r="A78" s="1">
         <v>73</v>
       </c>
@@ -8317,7 +10972,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:39">
       <c r="A79" s="1">
         <v>74</v>
       </c>
@@ -8382,7 +11037,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:39">
       <c r="A80" s="1">
         <v>75</v>
       </c>
@@ -8447,7 +11102,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:39">
       <c r="A81" s="1">
         <v>76</v>
       </c>
@@ -8512,7 +11167,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:39">
       <c r="A82" s="1">
         <v>77</v>
       </c>
@@ -8577,7 +11232,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:39">
       <c r="A83" s="1">
         <v>78</v>
       </c>
@@ -8642,7 +11297,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:39">
       <c r="A84" s="1">
         <v>79</v>
       </c>
@@ -8707,7 +11362,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:39">
       <c r="A85" s="1">
         <v>80</v>
       </c>
@@ -8772,7 +11427,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:39">
       <c r="A86" s="1">
         <v>81</v>
       </c>
@@ -8837,7 +11492,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:39">
       <c r="A87" s="1">
         <v>82</v>
       </c>
@@ -8902,7 +11557,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:39">
       <c r="A88" s="1">
         <v>83</v>
       </c>
@@ -8967,7 +11622,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:39">
       <c r="A89" s="1">
         <v>84</v>
       </c>
@@ -9032,7 +11687,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:39">
       <c r="A90" s="1">
         <v>85</v>
       </c>
@@ -9097,7 +11752,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:39">
       <c r="A91" s="1">
         <v>86</v>
       </c>
@@ -9162,7 +11817,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:39">
       <c r="A92" s="1">
         <v>87</v>
       </c>
@@ -9227,7 +11882,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:39">
       <c r="A93" s="1">
         <v>88</v>
       </c>
@@ -9292,7 +11947,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:39">
       <c r="A94" s="1">
         <v>89</v>
       </c>
@@ -9357,7 +12012,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:39">
       <c r="A95" s="1">
         <v>90</v>
       </c>
@@ -9422,7 +12077,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:39">
       <c r="A96" s="1">
         <v>91</v>
       </c>
@@ -9487,7 +12142,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:39">
       <c r="A97" s="1">
         <v>92</v>
       </c>
@@ -9552,7 +12207,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:39">
       <c r="A98" s="1">
         <v>93</v>
       </c>
@@ -9617,7 +12272,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:39">
       <c r="A99" s="1">
         <v>94</v>
       </c>
@@ -9682,7 +12337,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:39">
       <c r="A100" s="1">
         <v>95</v>
       </c>
@@ -9747,7 +12402,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:39">
       <c r="A101" s="1">
         <v>96</v>
       </c>
@@ -9812,7 +12467,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:39">
       <c r="A102" s="1">
         <v>97</v>
       </c>
@@ -9877,7 +12532,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:39">
       <c r="A103" s="1">
         <v>98</v>
       </c>
@@ -9942,7 +12597,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:39">
       <c r="A104" s="1">
         <v>99</v>
       </c>
@@ -10007,7 +12662,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:39">
       <c r="A105" s="1">
         <v>100</v>
       </c>
@@ -10072,7 +12727,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:39">
       <c r="A106" s="1">
         <v>101</v>
       </c>
@@ -10137,7 +12792,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:39">
       <c r="A107" s="1">
         <v>102</v>
       </c>
@@ -10202,7 +12857,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:39">
       <c r="A108" s="1">
         <v>103</v>
       </c>
@@ -10267,7 +12922,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:39">
       <c r="A109" s="1">
         <v>104</v>
       </c>
@@ -10332,7 +12987,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:39">
       <c r="A110" s="1">
         <v>105</v>
       </c>
@@ -10397,7 +13052,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:39">
       <c r="A111" s="1">
         <v>106</v>
       </c>
@@ -10462,7 +13117,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:39">
       <c r="A112" s="1">
         <v>107</v>
       </c>
@@ -10527,7 +13182,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:39">
       <c r="A113" s="1">
         <v>108</v>
       </c>
@@ -10592,7 +13247,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:39">
       <c r="A114" s="1">
         <v>109</v>
       </c>
@@ -10657,7 +13312,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:39">
       <c r="A115" s="1">
         <v>110</v>
       </c>
@@ -10722,7 +13377,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:39">
       <c r="A116" s="1">
         <v>111</v>
       </c>
@@ -10787,7 +13442,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:39">
       <c r="A117" s="1">
         <v>112</v>
       </c>
@@ -10852,7 +13507,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:39">
       <c r="A118" s="1">
         <v>113</v>
       </c>
@@ -10917,7 +13572,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:39">
       <c r="A119" s="1">
         <v>114</v>
       </c>
@@ -10982,7 +13637,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:39">
       <c r="A120" s="1">
         <v>115</v>
       </c>
@@ -11047,7 +13702,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:39">
       <c r="A121" s="1">
         <v>116</v>
       </c>
@@ -11112,7 +13767,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:39">
       <c r="A122" s="1">
         <v>117</v>
       </c>
@@ -11177,7 +13832,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:39">
       <c r="A123" s="1">
         <v>118</v>
       </c>
@@ -11242,7 +13897,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:39">
       <c r="A124" s="1">
         <v>119</v>
       </c>
@@ -11307,7 +13962,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:39">
       <c r="A125" s="1">
         <v>120</v>
       </c>
@@ -11372,7 +14027,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:39">
       <c r="A126" s="1">
         <v>121</v>
       </c>
@@ -11437,7 +14092,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:39">
       <c r="A127" s="1">
         <v>122</v>
       </c>
@@ -11502,7 +14157,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:39">
       <c r="A128" s="1">
         <v>123</v>
       </c>
@@ -11567,7 +14222,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:39">
       <c r="A129" s="1">
         <v>124</v>
       </c>
@@ -11632,7 +14287,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:39">
       <c r="A130" s="1">
         <v>125</v>
       </c>
@@ -11697,7 +14352,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:39">
       <c r="A131" s="1">
         <v>126</v>
       </c>
@@ -11762,7 +14417,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:39">
       <c r="A132" s="1">
         <v>127</v>
       </c>
@@ -11827,7 +14482,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:39">
       <c r="A133" s="1">
         <v>128</v>
       </c>
@@ -11892,7 +14547,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:39">
       <c r="A134" s="1">
         <v>129</v>
       </c>
@@ -11957,7 +14612,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:39">
       <c r="A135" s="1">
         <v>130</v>
       </c>
@@ -12022,7 +14677,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:39">
       <c r="A136" s="1">
         <v>131</v>
       </c>
@@ -12087,7 +14742,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:39">
       <c r="A137" s="1">
         <v>132</v>
       </c>
@@ -12152,7 +14807,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:39">
       <c r="A138" s="1">
         <v>133</v>
       </c>
@@ -12217,7 +14872,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:39">
       <c r="A139" s="1">
         <v>134</v>
       </c>
@@ -12282,7 +14937,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:39">
       <c r="A140" s="1">
         <v>135</v>
       </c>
@@ -12347,7 +15002,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:39">
       <c r="A141" s="1">
         <v>136</v>
       </c>
@@ -12412,7 +15067,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:39">
       <c r="A142" s="1">
         <v>137</v>
       </c>
@@ -12477,7 +15132,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:39">
       <c r="A143" s="1">
         <v>138</v>
       </c>
@@ -12542,7 +15197,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:39">
       <c r="A144" s="1">
         <v>139</v>
       </c>
@@ -12607,7 +15262,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:39">
       <c r="A145" s="1">
         <v>140</v>
       </c>
@@ -12672,7 +15327,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:39">
       <c r="A146" s="1">
         <v>141</v>
       </c>
@@ -12737,7 +15392,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:39">
       <c r="A147" s="1">
         <v>142</v>
       </c>
@@ -12802,7 +15457,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:39">
       <c r="A148" s="1">
         <v>143</v>
       </c>
@@ -12867,7 +15522,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:39">
       <c r="A149" s="1">
         <v>144</v>
       </c>
@@ -12932,7 +15587,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:39">
       <c r="A150" s="1">
         <v>145</v>
       </c>
@@ -12997,7 +15652,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:39">
       <c r="A151" s="1">
         <v>146</v>
       </c>
@@ -13062,7 +15717,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:39">
       <c r="A152" s="1">
         <v>147</v>
       </c>
@@ -13127,7 +15782,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:39">
       <c r="A153" s="1">
         <v>148</v>
       </c>
@@ -13192,7 +15847,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:39">
       <c r="A154" s="1">
         <v>149</v>
       </c>
@@ -13257,7 +15912,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:39">
       <c r="A155" s="1">
         <v>150</v>
       </c>
@@ -13322,7 +15977,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:39">
       <c r="A156" s="1">
         <v>151</v>
       </c>
@@ -13387,7 +16042,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:39">
       <c r="A157" s="1">
         <v>152</v>
       </c>
@@ -13452,7 +16107,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:39">
       <c r="A158" s="1">
         <v>153</v>
       </c>
@@ -13517,7 +16172,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:39">
       <c r="A159" s="1">
         <v>154</v>
       </c>
@@ -13582,7 +16237,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:39">
       <c r="A160" s="1">
         <v>155</v>
       </c>
@@ -13647,7 +16302,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:39">
       <c r="A161" s="1">
         <v>156</v>
       </c>
@@ -13712,7 +16367,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:39">
       <c r="A162" s="1">
         <v>157</v>
       </c>
@@ -13777,7 +16432,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:39">
       <c r="A163" s="1">
         <v>158</v>
       </c>
@@ -13842,7 +16497,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:39">
       <c r="A164" s="1">
         <v>159</v>
       </c>
@@ -13907,7 +16562,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:39">
       <c r="A165" s="1">
         <v>160</v>
       </c>
@@ -13972,7 +16627,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:39">
       <c r="A166" s="1">
         <v>161</v>
       </c>
@@ -14037,7 +16692,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:39">
       <c r="A167" s="1">
         <v>162</v>
       </c>
@@ -14102,7 +16757,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:39">
       <c r="A168" s="1">
         <v>163</v>
       </c>
@@ -14167,7 +16822,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:39">
       <c r="A169" s="1">
         <v>164</v>
       </c>
@@ -14232,7 +16887,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:39">
       <c r="A170" s="1">
         <v>165</v>
       </c>
@@ -14297,7 +16952,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:39">
       <c r="A171" s="1">
         <v>166</v>
       </c>
@@ -14362,7 +17017,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:39">
       <c r="A172" s="1">
         <v>167</v>
       </c>
@@ -14427,7 +17082,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:39">
       <c r="A173" s="1">
         <v>168</v>
       </c>
@@ -14492,7 +17147,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:39">
       <c r="A174" s="1">
         <v>169</v>
       </c>
@@ -14557,7 +17212,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:39">
       <c r="A175" s="1">
         <v>170</v>
       </c>
@@ -14622,7 +17277,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:39">
       <c r="A176" s="1">
         <v>171</v>
       </c>
@@ -14687,7 +17342,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:39">
       <c r="A177" s="1">
         <v>172</v>
       </c>
@@ -14752,7 +17407,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:39">
       <c r="A178" s="1">
         <v>173</v>
       </c>
@@ -14817,7 +17472,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:39">
       <c r="A179" s="1">
         <v>174</v>
       </c>
@@ -14882,7 +17537,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:39">
       <c r="A180" s="1">
         <v>175</v>
       </c>
@@ -14947,7 +17602,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:39">
       <c r="A181" s="1">
         <v>176</v>
       </c>
@@ -15012,7 +17667,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:39">
       <c r="A182" s="1">
         <v>177</v>
       </c>
@@ -15077,7 +17732,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:39">
       <c r="A183" s="1">
         <v>178</v>
       </c>
@@ -15142,7 +17797,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:39">
       <c r="A184" s="1">
         <v>179</v>
       </c>
@@ -15207,7 +17862,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:39">
       <c r="A185" s="1">
         <v>180</v>
       </c>
@@ -15272,7 +17927,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:39">
       <c r="A186" s="1">
         <v>181</v>
       </c>
@@ -15337,7 +17992,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:39">
       <c r="A187" s="1">
         <v>182</v>
       </c>
@@ -15402,7 +18057,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:39">
       <c r="A188" s="1">
         <v>183</v>
       </c>
@@ -15467,7 +18122,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:39">
       <c r="A189" s="1">
         <v>184</v>
       </c>
@@ -15532,7 +18187,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:39">
       <c r="A190" s="1">
         <v>185</v>
       </c>
@@ -15597,7 +18252,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:39">
       <c r="A191" s="1">
         <v>186</v>
       </c>
@@ -15662,7 +18317,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:39">
       <c r="A192" s="1">
         <v>187</v>
       </c>
@@ -15727,7 +18382,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:39">
       <c r="A193" s="1">
         <v>188</v>
       </c>
@@ -15792,7 +18447,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:39">
       <c r="A194" s="1">
         <v>189</v>
       </c>
@@ -15857,7 +18512,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:39">
       <c r="A195" s="1">
         <v>190</v>
       </c>
@@ -15922,7 +18577,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:39">
       <c r="A196" s="1">
         <v>191</v>
       </c>
@@ -15987,7 +18642,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:39">
       <c r="A197" s="1">
         <v>192</v>
       </c>
@@ -16052,7 +18707,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:39">
       <c r="A198" s="1">
         <v>193</v>
       </c>
@@ -16117,7 +18772,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:39">
       <c r="A199" s="1">
         <v>194</v>
       </c>
@@ -16182,7 +18837,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:39">
       <c r="A200" s="1">
         <v>195</v>
       </c>
@@ -16247,7 +18902,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>196</v>
       </c>
@@ -16260,7 +18915,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>197</v>
       </c>
@@ -16274,8 +18929,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>